--- a/usyc.xlsx
+++ b/usyc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Libor</t>
   </si>
@@ -212,6 +212,15 @@
   <si>
     <t>forward</t>
   </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>USSW2</t>
+  </si>
 </sst>
 </file>
 
@@ -286,36 +295,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2728,6 +2707,2404 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-11B7-4011-B264-DAAD456CB6AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$35:$B$425</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="391"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.0000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$35:$D$425</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="391"/>
+                <c:pt idx="0">
+                  <c:v>1.2597260050557143E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2597260050557143E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2597260050557143E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2597260050557143E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2597260050557143E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2597260050557143E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2597260050557143E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2597260050557143E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2597260050557143E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2597260050557143E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4105101221733056E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4105101221733056E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4105101221733056E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4105101221733056E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4105101221733056E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4105101221733056E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4105101221733056E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4105101221733056E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5282129034986573E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5282129034986573E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5282129034986573E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5282129034986573E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5282129034986573E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5282129034986573E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5282129034986573E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5282129034986573E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7873271982620915E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.1212379824464042E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0517330172514857E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.1451927474952642E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.1451927474952642E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.1753386938109579E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.1753386938109579E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1753386938109579E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.2054751607908627E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.2054751607908627E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.1137679749020995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.1137679749020995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.0180452737068552E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.0180452737068552E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.0180452737068552E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.0180452737068552E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.0180452737068552E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.0180452737068552E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.0180452737068552E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.0180452737068552E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.0180452737068552E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.0180452737068552E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.1690340676991419E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.1690340676991419E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.1690340676991419E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.1690340676991419E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.1690340676991419E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.1690340676991419E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.1690340676991419E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.1690340676991419E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.1690340676991419E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.1690340676991419E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.327483379252387E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.327483379252387E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.327483379252387E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.327483379252387E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.327483379252387E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.327483379252387E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.327483379252387E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.327483379252387E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.327483379252387E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.327483379252387E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.5075274331584513E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.5075274331584513E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.5075274331584513E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.5075274331584513E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.5075274331584513E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.5075274331584513E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.5075274331584513E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.5075274331584513E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.5075274331584513E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.5075274331584513E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.6339621054790619E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.6339621054790619E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.6339621054790619E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.6339621054790619E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.6339621054790619E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.6339621054790619E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.6339621054790619E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.6339621054790619E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.6339621054790619E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.6339621054790619E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.7630621227288989E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.7630621227288989E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.7630621227288989E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.7630621227288989E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.7630621227288989E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.7630621227288989E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.7630621227288989E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.7630621227288989E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.7630621227288989E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.7630621227288989E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.8524483115849904E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.8524483115849904E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.8524483115849904E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.8524483115849904E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.8524483115849904E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.8524483115849904E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.8524483115849904E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.8524483115849904E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.8524483115849904E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.8524483115849904E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.9271950183753013E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.9271950183753013E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.9271950183753013E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.9271950183753013E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.9271950183753013E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.9271950183753013E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.9271950183753013E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.9271950183753013E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.9271950183753013E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.9271950183753013E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.0132453052366443E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.0242333702240951E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>4.0069538811482376E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3.8538575519112279E-2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>3.7126570168970814E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FD0-467F-9333-2547DDAC2160}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3484,7 +5861,7 @@
       <xdr:rowOff>18315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>234462</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>68870</xdr:rowOff>
@@ -4355,19 +6732,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC1D4D6-2BA1-41FB-BF7F-A4A93D8C2E2A}">
-  <dimension ref="B2:S425"/>
+  <dimension ref="B2:T425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.06640625" customWidth="1"/>
     <col min="9" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.19921875" customWidth="1"/>
+    <col min="11" max="14" width="12.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>52</v>
       </c>
@@ -4376,10 +6755,10 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>60</v>
       </c>
@@ -4405,22 +6784,29 @@
         <v>53</v>
       </c>
       <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
         <v>58</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>54</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="K5">
+        <f>_xll.RANGE.SET(_xll.RANGE.MASK(J6:J32,K6:K32))</f>
+        <v>-9.2559596500264674E+61</v>
+      </c>
+      <c r="L5">
         <f>_xll.PWFLAT.CURVE(0,0)</f>
-        <v>-9.2559596712713758E+61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-9.2559597066715488E+61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -4446,39 +6832,39 @@
       </c>
       <c r="I6">
         <f>_xll.FIXED.INCOME.CASH.DEPOSIT(E6, F6, G6, H6)</f>
-        <v>-9.2559596714844354E+61</v>
+        <v>-9.2559597078802563E+61</v>
       </c>
       <c r="J6">
         <f>_xll.FIXED.INCOME.CASH.DEPOSIT.FIX(I6,$D$2,D6/100)</f>
-        <v>-9.2559596714844354E+61</v>
-      </c>
-      <c r="K6">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K5, L6, M6)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078802563E+61</v>
       </c>
       <c r="L6">
-        <f t="array" ref="L6:M6">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J6, K5))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L5, M6, N6)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M6">
+        <f t="array" ref="M6:N6">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J6, L5))</f>
         <v>9.3088838237609259E-2</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.2597260050557143E-2</v>
       </c>
-      <c r="N6">
-        <f t="array" ref="N6:O6">_xll.FIXED.INCOME.INSTRUMENT.TIME(J6)</f>
+      <c r="O6">
+        <f t="array" ref="O6:P6">_xll.FIXED.INCOME.INSTRUMENT.TIME(J6)</f>
         <v>5.4758140139770156E-3</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>9.3088838237609259E-2</v>
       </c>
-      <c r="P6">
-        <f t="array" ref="P6:Q6">_xll.FIXED.INCOME.INSTRUMENT.CASH(J6)</f>
+      <c r="Q6">
+        <f t="array" ref="Q6:R6">_xll.FIXED.INCOME.INSTRUMENT.CASH(J6)</f>
         <v>-1</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1.0011042933333334</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -4501,39 +6887,39 @@
       </c>
       <c r="I7">
         <f>_xll.FIXED.INCOME.CASH.DEPOSIT(E7, F7, G7, H7)</f>
-        <v>-9.2559596714794663E+61</v>
+        <v>-9.2559597078814255E+61</v>
       </c>
       <c r="J7">
         <f>_xll.FIXED.INCOME.CASH.DEPOSIT.FIX(I7,$D$2,D7/100)</f>
-        <v>-9.2559596714794663E+61</v>
-      </c>
-      <c r="K7">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K6, L7, M7)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078814255E+61</v>
       </c>
       <c r="L7">
-        <f t="array" ref="L7:M7">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J7, K6))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L6, M7, N7)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M7">
+        <f t="array" ref="M7:N7">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J7, L6))</f>
         <v>0.17248814144027599</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.4105101221733056E-2</v>
       </c>
-      <c r="N7">
-        <f t="array" ref="N7:O7">_xll.FIXED.INCOME.INSTRUMENT.TIME(J7)</f>
+      <c r="O7">
+        <f t="array" ref="O7:P7">_xll.FIXED.INCOME.INSTRUMENT.TIME(J7)</f>
         <v>5.4758140139770156E-3</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.17248814144027599</v>
       </c>
-      <c r="P7">
-        <f t="array" ref="P7:Q7">_xll.FIXED.INCOME.INSTRUMENT.CASH(J7)</f>
+      <c r="Q7">
+        <f t="array" ref="Q7:R7">_xll.FIXED.INCOME.INSTRUMENT.CASH(J7)</f>
         <v>-1</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1.0022260933333333</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -4556,39 +6942,39 @@
       </c>
       <c r="I8">
         <f>_xll.FIXED.INCOME.CASH.DEPOSIT(E8, F8, G8, H8)</f>
-        <v>-9.255959671474351E+61</v>
+        <v>-9.255959707881864E+61</v>
       </c>
       <c r="J8">
         <f>_xll.FIXED.INCOME.CASH.DEPOSIT.FIX(I8,$D$2,D8/100)</f>
-        <v>-9.255959671474351E+61</v>
-      </c>
-      <c r="K8">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K7, L8, M8)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.255959707881864E+61</v>
       </c>
       <c r="L8">
-        <f t="array" ref="L8:M8">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J8, K7))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L7, M8, N8)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M8">
+        <f t="array" ref="M8:N8">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J8, L7))</f>
         <v>0.25736325865691972</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.5282129034986573E-2</v>
       </c>
-      <c r="N8">
-        <f t="array" ref="N8:O8">_xll.FIXED.INCOME.INSTRUMENT.TIME(J8)</f>
+      <c r="O8">
+        <f t="array" ref="O8:P8">_xll.FIXED.INCOME.INSTRUMENT.TIME(J8)</f>
         <v>5.4758140139770156E-3</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.25736325865691972</v>
       </c>
-      <c r="P8">
-        <f t="array" ref="P8:Q8">_xll.FIXED.INCOME.INSTRUMENT.CASH(J8)</f>
+      <c r="Q8">
+        <f t="array" ref="Q8:R8">_xll.FIXED.INCOME.INSTRUMENT.CASH(J8)</f>
         <v>-1</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1.0035268966666666</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -4611,39 +6997,39 @@
       </c>
       <c r="I9">
         <f>_xll.FIXED.INCOME.CASH.DEPOSIT(E9, F9, G9, H9)</f>
-        <v>-9.2559596714853123E+61</v>
+        <v>-9.2559597078805486E+61</v>
       </c>
       <c r="J9">
         <f>_xll.FIXED.INCOME.CASH.DEPOSIT.FIX(I9,$D$2,D9/100)</f>
-        <v>-9.2559596714853123E+61</v>
-      </c>
-      <c r="K9">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K8, L9, M9)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078805486E+61</v>
       </c>
       <c r="L9">
-        <f t="array" ref="L9:M9">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J9, K8))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L8, M9, N9)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M9">
+        <f t="array" ref="M9:N9">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J9, L8))</f>
         <v>0.50103698227889693</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1.7873271982620915E-2</v>
       </c>
-      <c r="N9">
-        <f t="array" ref="N9:O9">_xll.FIXED.INCOME.INSTRUMENT.TIME(J9)</f>
+      <c r="O9">
+        <f t="array" ref="O9:P9">_xll.FIXED.INCOME.INSTRUMENT.TIME(J9)</f>
         <v>5.4758140139770156E-3</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.50103698227889693</v>
       </c>
-      <c r="P9">
-        <f t="array" ref="P9:Q9">_xll.FIXED.INCOME.INSTRUMENT.CASH(J9)</f>
+      <c r="Q9">
+        <f t="array" ref="Q9:R9">_xll.FIXED.INCOME.INSTRUMENT.CASH(J9)</f>
         <v>-1</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1.0079070352777777</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>40</v>
       </c>
@@ -4666,39 +7052,39 @@
       </c>
       <c r="I10">
         <f>_xll.FIXED.INCOME.CASH.DEPOSIT(E10, F10, G10, H10)</f>
-        <v>-9.2559596714736203E+61</v>
+        <v>-9.2559597078793794E+61</v>
       </c>
       <c r="J10">
         <f>_xll.FIXED.INCOME.CASH.DEPOSIT.FIX(I10,$D$2,D10/100)</f>
-        <v>-9.2559596714736203E+61</v>
-      </c>
-      <c r="K10">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K9, L10, M10)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078793794E+61</v>
       </c>
       <c r="L10">
-        <f t="array" ref="L10:M10">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J10, K9))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L9, M10, N10)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M10">
+        <f t="array" ref="M10:N10">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J10, L9))</f>
         <v>1.0048118715647822</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2.1212379824464042E-2</v>
       </c>
-      <c r="N10">
-        <f t="array" ref="N10:O10">_xll.FIXED.INCOME.INSTRUMENT.TIME(J10)</f>
+      <c r="O10">
+        <f t="array" ref="O10:P10">_xll.FIXED.INCOME.INSTRUMENT.TIME(J10)</f>
         <v>5.4758140139770156E-3</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1.0048118715647822</v>
       </c>
-      <c r="P10">
-        <f t="array" ref="P10:Q10">_xll.FIXED.INCOME.INSTRUMENT.CASH(J10)</f>
+      <c r="Q10">
+        <f t="array" ref="Q10:R10">_xll.FIXED.INCOME.INSTRUMENT.CASH(J10)</f>
         <v>-1</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1.0187355513888889</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -4724,28 +7110,31 @@
       </c>
       <c r="I11">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT(E11, F11, G11, H11)</f>
-        <v>-9.2559596714780048E+61</v>
+        <v>-9.2559597078821563E+61</v>
       </c>
       <c r="J11">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT.FIX(I11,$D$2,1 - D11/100)</f>
-        <v>-9.2559596714780048E+61</v>
-      </c>
-      <c r="N11">
-        <f t="array" ref="N11:O11">_xll.FIXED.INCOME.INSTRUMENT.TIME(J11)</f>
+        <v>-9.2559597078821563E+61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11">
+        <f t="array" ref="O11:P11">_xll.FIXED.INCOME.INSTRUMENT.TIME(J11)</f>
         <v>0.13415744334243687</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.38056907397140255</v>
       </c>
-      <c r="P11">
-        <f t="array" ref="P11:Q11">_xll.FIXED.INCOME.INSTRUMENT.CASH(J11)</f>
+      <c r="Q11">
+        <f t="array" ref="Q11:R11">_xll.FIXED.INCOME.INSTRUMENT.CASH(J11)</f>
         <v>-1</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1.004775</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -4768,28 +7157,31 @@
       </c>
       <c r="I12">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT(E12, F12, G12, H12)</f>
-        <v>-9.2559596714759587E+61</v>
+        <v>-9.2559597078833255E+61</v>
       </c>
       <c r="J12">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT.FIX(I12,$D$2,1 - D12/100)</f>
-        <v>-9.2559596714759587E+61</v>
-      </c>
-      <c r="N12">
-        <f t="array" ref="N12:O12">_xll.FIXED.INCOME.INSTRUMENT.TIME(J12)</f>
+        <v>-9.2559597078833255E+61</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12">
+        <f t="array" ref="O12:P12">_xll.FIXED.INCOME.INSTRUMENT.TIME(J12)</f>
         <v>0.38330698097839105</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.63519442562133377</v>
       </c>
-      <c r="P12">
-        <f t="array" ref="P12:Q12">_xll.FIXED.INCOME.INSTRUMENT.CASH(J12)</f>
+      <c r="Q12">
+        <f t="array" ref="Q12:R12">_xll.FIXED.INCOME.INSTRUMENT.CASH(J12)</f>
         <v>-1</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1.0050088888888888</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>28</v>
       </c>
@@ -4812,28 +7204,31 @@
       </c>
       <c r="I13">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT(E13, F13, G13, H13)</f>
-        <v>-9.2559596714799047E+61</v>
+        <v>-9.2559597078806948E+61</v>
       </c>
       <c r="J13">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT.FIX(I13,$D$2,1 - D13/100)</f>
-        <v>-9.2559596714799047E+61</v>
-      </c>
-      <c r="N13">
-        <f t="array" ref="N13:O13">_xll.FIXED.INCOME.INSTRUMENT.TIME(J13)</f>
+        <v>-9.2559597078806948E+61</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13">
+        <f t="array" ref="O13:P13">_xll.FIXED.INCOME.INSTRUMENT.TIME(J13)</f>
         <v>0.63519442562133377</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.88708187026427643</v>
       </c>
-      <c r="P13">
-        <f t="array" ref="P13:Q13">_xll.FIXED.INCOME.INSTRUMENT.CASH(J13)</f>
+      <c r="Q13">
+        <f t="array" ref="Q13:R13">_xll.FIXED.INCOME.INSTRUMENT.CASH(J13)</f>
         <v>-1</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1.0051622222222223</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -4856,39 +7251,39 @@
       </c>
       <c r="I14">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT(E14, F14, G14, H14)</f>
-        <v>-9.2559596714823893E+61</v>
+        <v>-9.2559597078796717E+61</v>
       </c>
       <c r="J14">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT.FIX(I14,$D$2,1 - D14/100)</f>
-        <v>-9.2559596714823893E+61</v>
-      </c>
-      <c r="K14">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K10, L14, M14)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078796717E+61</v>
       </c>
       <c r="L14">
-        <f t="array" ref="L14:M14">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J14, K10))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L10, M14, N14)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M14">
+        <f t="array" ref="M14:N14">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J14, L10))</f>
         <v>1.1362314079002307</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2.0517330172514857E-2</v>
       </c>
-      <c r="N14">
-        <f t="array" ref="N14:O14">_xll.FIXED.INCOME.INSTRUMENT.TIME(J14)</f>
+      <c r="O14">
+        <f t="array" ref="O14:P14">_xll.FIXED.INCOME.INSTRUMENT.TIME(J14)</f>
         <v>0.88708187026427643</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.1362314079002307</v>
       </c>
-      <c r="P14">
-        <f t="array" ref="P14:Q14">_xll.FIXED.INCOME.INSTRUMENT.CASH(J14)</f>
+      <c r="Q14">
+        <f t="array" ref="Q14:R14">_xll.FIXED.INCOME.INSTRUMENT.CASH(J14)</f>
         <v>-1</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.0052072222222221</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -4911,39 +7306,39 @@
       </c>
       <c r="I15">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT(E15, F15, G15, H15)</f>
-        <v>-9.2559596714782971E+61</v>
+        <v>-9.255959707882887E+61</v>
       </c>
       <c r="J15">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT.FIX(I15,$D$2,1 - D15/100)</f>
-        <v>-9.2559596714782971E+61</v>
-      </c>
-      <c r="K15">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K14, L15, M15)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.255959707882887E+61</v>
       </c>
       <c r="L15">
-        <f t="array" ref="L15:M15">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0,J15,K14))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L14, M15, N15)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M15">
+        <f t="array" ref="M15:N15">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0,J15,L14))</f>
         <v>1.3826430385291963</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2.1451927474952642E-2</v>
       </c>
-      <c r="N15">
-        <f t="array" ref="N15:O15">_xll.FIXED.INCOME.INSTRUMENT.TIME(J15)</f>
+      <c r="O15">
+        <f t="array" ref="O15:P15">_xll.FIXED.INCOME.INSTRUMENT.TIME(J15)</f>
         <v>1.1362314079002307</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.3826430385291963</v>
       </c>
-      <c r="P15">
-        <f t="array" ref="P15:Q15">_xll.FIXED.INCOME.INSTRUMENT.CASH(J15)</f>
+      <c r="Q15">
+        <f t="array" ref="Q15:R15">_xll.FIXED.INCOME.INSTRUMENT.CASH(J15)</f>
         <v>-1</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.0053000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -4966,39 +7361,39 @@
       </c>
       <c r="I16">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT(E16, F16, G16, H16)</f>
-        <v>-9.2559596714756664E+61</v>
+        <v>-9.2559597078827409E+61</v>
       </c>
       <c r="J16">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT.FIX(I16,$D$2,1 - D16/100)</f>
-        <v>-9.2559596714756664E+61</v>
-      </c>
-      <c r="K16">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K15, L16, M16)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078827409E+61</v>
       </c>
       <c r="L16">
-        <f t="array" ref="L16:M16">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0,J16,K15))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L15, M16, N16)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M16">
+        <f t="array" ref="M16:N16">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0,J16,L15))</f>
         <v>1.6372683901791276</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2.1753386938109579E-2</v>
       </c>
-      <c r="N16">
-        <f t="array" ref="N16:O16">_xll.FIXED.INCOME.INSTRUMENT.TIME(J16)</f>
+      <c r="O16">
+        <f t="array" ref="O16:P16">_xll.FIXED.INCOME.INSTRUMENT.TIME(J16)</f>
         <v>1.385380945536185</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.6372683901791276</v>
       </c>
-      <c r="P16">
-        <f t="array" ref="P16:Q16">_xll.FIXED.INCOME.INSTRUMENT.CASH(J16)</f>
+      <c r="Q16">
+        <f t="array" ref="Q16:R16">_xll.FIXED.INCOME.INSTRUMENT.CASH(J16)</f>
         <v>-1</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.0054944444444445</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>36</v>
       </c>
@@ -5021,39 +7416,39 @@
       </c>
       <c r="I17">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT(E17, F17, G17, H17)</f>
-        <v>-9.2559596714775663E+61</v>
+        <v>-9.2559597078691489E+61</v>
       </c>
       <c r="J17">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT.FIX(I17,$D$2,1 - D17/100)</f>
-        <v>-9.2559596714775663E+61</v>
-      </c>
-      <c r="K17">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K16, L17, M17)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078691489E+61</v>
       </c>
       <c r="L17">
-        <f t="array" ref="L17:M17">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0,J17,K16))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L16, M17, N17)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M17">
+        <f t="array" ref="M17:N17">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0,J17,L16))</f>
         <v>1.8946316488360473</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2.2054751607908627E-2</v>
       </c>
-      <c r="N17">
-        <f t="array" ref="N17:O17">_xll.FIXED.INCOME.INSTRUMENT.TIME(J17)</f>
+      <c r="O17">
+        <f t="array" ref="O17:P17">_xll.FIXED.INCOME.INSTRUMENT.TIME(J17)</f>
         <v>1.6372683901791276</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.8946316488360473</v>
       </c>
-      <c r="P17">
-        <f t="array" ref="P17:Q17">_xll.FIXED.INCOME.INSTRUMENT.CASH(J17)</f>
+      <c r="Q17">
+        <f t="array" ref="Q17:R17">_xll.FIXED.INCOME.INSTRUMENT.CASH(J17)</f>
         <v>-1</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1.0056922222222222</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>38</v>
       </c>
@@ -5076,30 +7471,36 @@
       </c>
       <c r="I18">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT(E18, F18, G18, H18)</f>
-        <v>-9.2559596714838508E+61</v>
+        <v>-9.2559597078834716E+61</v>
       </c>
       <c r="J18">
         <f>_xll.FIXED.INCOME.FORWARD.RATE.AGREEMENT.FIX(I18,$D$2,1 - D18/100)</f>
-        <v>-9.2559596714838508E+61</v>
-      </c>
-      <c r="N18">
-        <f t="array" ref="N18:O18">_xll.FIXED.INCOME.INSTRUMENT.TIME(J18)</f>
+        <v>-9.2559597078834716E+61</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18">
+        <f t="array" ref="O18:P18">_xll.FIXED.INCOME.INSTRUMENT.TIME(J18)</f>
         <v>1.8946316488360473</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2.1437811864720016</v>
       </c>
-      <c r="P18">
-        <f t="array" ref="P18:Q18">_xll.FIXED.INCOME.INSTRUMENT.CASH(J18)</f>
+      <c r="Q18">
+        <f t="array" ref="Q18:R18">_xll.FIXED.INCOME.INSTRUMENT.CASH(J18)</f>
         <v>-1</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1.005586388888889</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
       </c>
       <c r="D19">
         <v>1.804</v>
@@ -5120,45 +7521,45 @@
       </c>
       <c r="I19">
         <f>_xll.FIXED.INCOME.SWAP(E19, F19, _xll.FREQ_SEMIANNUALLY(), G19, H19)</f>
-        <v>-9.2559596714845815E+61</v>
+        <v>-9.2559597078830332E+61</v>
       </c>
       <c r="J19">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I19, $D$2, D19/100)</f>
-        <v>-9.2559596714845815E+61</v>
-      </c>
-      <c r="K19">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K17, L19, M19)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078830332E+61</v>
       </c>
       <c r="L19">
-        <f t="array" ref="L19:M19">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J19, K17))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L17, M19, N19)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M19">
+        <f t="array" ref="M19:N19">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J19, L17))</f>
         <v>2.0096237431295645</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.1137679749020995</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J19)</f>
         <v>5</v>
       </c>
-      <c r="O19">
-        <f t="array" ref="O19:S19">_xll.FIXED.INCOME.INSTRUMENT.TIME(J19)</f>
+      <c r="P19">
+        <f t="array" ref="P19:T19">_xll.FIXED.INCOME.INSTRUMENT.TIME(J19)</f>
         <v>5.4758140139770156E-3</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.50103698227889693</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1.0048118715647822</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1.5003730398297022</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2.0096237431295645</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D20">
         <v>1.919</v>
       </c>
@@ -5178,33 +7579,33 @@
       </c>
       <c r="I20">
         <f>_xll.FIXED.INCOME.SWAP(E20, F20, _xll.FREQ_SEMIANNUALLY(), G20, H20)</f>
-        <v>-9.2559596714737664E+61</v>
+        <v>-9.2559597078804025E+61</v>
       </c>
       <c r="J20">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I20, $D$2, D20/100)</f>
-        <v>-9.2559596714737664E+61</v>
-      </c>
-      <c r="K20">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K19, L20, M20)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078804025E+61</v>
       </c>
       <c r="L20">
-        <f t="array" ref="L20:M20">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J20, K19))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L19, M20, N20)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M20">
+        <f t="array" ref="M20:N20">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J20, L19))</f>
         <v>3.0062218936733816</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>3.0180452737068552E-2</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J20)</f>
         <v>7</v>
       </c>
-      <c r="O20">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J20),1,N20)</f>
+      <c r="P20">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J20),1,O20)</f>
         <v>3.0062218936733816</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D21">
         <v>2.0019999999999998</v>
       </c>
@@ -5224,33 +7625,33 @@
       </c>
       <c r="I21">
         <f>_xll.FIXED.INCOME.SWAP(E21, F21, _xll.FREQ_SEMIANNUALLY(), G21, H21)</f>
-        <v>-9.2559596714768356E+61</v>
+        <v>-9.2559597078798179E+61</v>
       </c>
       <c r="J21">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I21, $D$2, D21/100)</f>
-        <v>-9.2559596714768356E+61</v>
-      </c>
-      <c r="K21">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K20, L21, M21)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078798179E+61</v>
       </c>
       <c r="L21">
-        <f t="array" ref="L21:M21">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J21, K20))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L20, M21, N21)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M21">
+        <f t="array" ref="M21:N21">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J21, L20))</f>
         <v>4.005557951224187</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3.1690340676991419E-2</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J21)</f>
         <v>9</v>
       </c>
-      <c r="O21">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J21),1,N21)</f>
+      <c r="P21">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J21),1,O21)</f>
         <v>4.005557951224187</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D22">
         <v>2.073</v>
       </c>
@@ -5270,33 +7671,33 @@
       </c>
       <c r="I22">
         <f>_xll.FIXED.INCOME.SWAP(E22, F22, _xll.FREQ_SEMIANNUALLY(), G22, H22)</f>
-        <v>-9.2559596714742049E+61</v>
+        <v>-9.2559597078676874E+61</v>
       </c>
       <c r="J22">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I22, $D$2, D22/100)</f>
-        <v>-9.2559596714742049E+61</v>
-      </c>
-      <c r="K22">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K21, L22, M22)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078676874E+61</v>
       </c>
       <c r="L22">
-        <f t="array" ref="L22:M22">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J22, K21))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L21, M22, N22)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M22">
+        <f t="array" ref="M22:N22">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J22, L21))</f>
         <v>5.0048940087749916</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3.327483379252387E-2</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J22)</f>
         <v>11</v>
       </c>
-      <c r="O22">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J22),1,N22)</f>
+      <c r="P22">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J22),1,O22)</f>
         <v>5.0048940087749916</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D23">
         <v>2.14</v>
       </c>
@@ -5316,33 +7717,33 @@
       </c>
       <c r="I23">
         <f>_xll.FIXED.INCOME.SWAP(E23, F23, _xll.FREQ_SEMIANNUALLY(), G23, H23)</f>
-        <v>-9.2559596714800509E+61</v>
+        <v>-9.2559597078817178E+61</v>
       </c>
       <c r="J23">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I23, $D$2, D23/100)</f>
-        <v>-9.2559596714800509E+61</v>
-      </c>
-      <c r="K23">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K22, L23, M23)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078817178E+61</v>
       </c>
       <c r="L23">
-        <f t="array" ref="L23:M23">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J23, K22))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L22, M23, N23)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M23">
+        <f t="array" ref="M23:N23">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J23, L22))</f>
         <v>6.004230066325797</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>3.5075274331584513E-2</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J23)</f>
         <v>13</v>
       </c>
-      <c r="O23">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J23),1,N23)</f>
+      <c r="P23">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J23),1,O23)</f>
         <v>6.004230066325797</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D24">
         <v>2.2010000000000001</v>
       </c>
@@ -5362,33 +7763,33 @@
       </c>
       <c r="I24">
         <f>_xll.FIXED.INCOME.SWAP(E24, F24, _xll.FREQ_SEMIANNUALLY(), G24, H24)</f>
-        <v>-9.2559596714858969E+61</v>
+        <v>-9.2559597078801102E+61</v>
       </c>
       <c r="J24">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I24, $D$2, D24/100)</f>
-        <v>-9.2559596714858969E+61</v>
-      </c>
-      <c r="K24">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K23, L24, M24)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078801102E+61</v>
       </c>
       <c r="L24">
-        <f t="array" ref="L24:M24">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J24, K23))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L23, M24, N24)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M24">
+        <f t="array" ref="M24:N24">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J24, L23))</f>
         <v>7.0117798448975677</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>3.6339621054790619E-2</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J24)</f>
         <v>15</v>
       </c>
-      <c r="O24">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J24),1,N24)</f>
+      <c r="P24">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J24),1,O24)</f>
         <v>7.0117798448975677</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D25">
         <v>2.2549999999999999</v>
       </c>
@@ -5408,33 +7809,33 @@
       </c>
       <c r="I25">
         <f>_xll.FIXED.INCOME.SWAP(E25, F25, _xll.FREQ_SEMIANNUALLY(), G25, H25)</f>
-        <v>-9.2559596714825354E+61</v>
+        <v>-9.2559597078831793E+61</v>
       </c>
       <c r="J25">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I25, $D$2, D25/100)</f>
-        <v>-9.2559596714825354E+61</v>
-      </c>
-      <c r="K25">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K24, L25, M25)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078831793E+61</v>
       </c>
       <c r="L25">
-        <f t="array" ref="L25:M25">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J25, K24))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L24, M25, N25)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M25">
+        <f t="array" ref="M25:N25">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J25, L24))</f>
         <v>8.0083779954413856</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>3.7630621227288989E-2</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J25)</f>
         <v>17</v>
       </c>
-      <c r="O25">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J25),1,N25)</f>
+      <c r="P25">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J25),1,O25)</f>
         <v>8.0083779954413856</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D26">
         <v>2.3029999999999999</v>
       </c>
@@ -5454,33 +7855,33 @@
       </c>
       <c r="I26">
         <f>_xll.FIXED.INCOME.SWAP(E26, F26, _xll.FREQ_SEMIANNUALLY(), G26, H26)</f>
-        <v>-9.2559596714769817E+61</v>
+        <v>-9.2559597078808409E+61</v>
       </c>
       <c r="J26">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I26, $D$2, D26/100)</f>
-        <v>-9.2559596714769817E+61</v>
-      </c>
-      <c r="K26">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K25, L26, M26)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078808409E+61</v>
       </c>
       <c r="L26">
-        <f t="array" ref="L26:M26">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J26, K25))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L25, M26, N26)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M26">
+        <f t="array" ref="M26:N26">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J26, L25))</f>
         <v>9.0049761459852018</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>3.8524483115849904E-2</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J26)</f>
         <v>19</v>
       </c>
-      <c r="O26">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J26),1,N26)</f>
+      <c r="P26">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J26),1,O26)</f>
         <v>9.0049761459852018</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D27">
         <v>2.3460000000000001</v>
       </c>
@@ -5500,33 +7901,33 @@
       </c>
       <c r="I27">
         <f>_xll.FIXED.INCOME.SWAP(E27, F27, _xll.FREQ_SEMIANNUALLY(), G27, H27)</f>
-        <v>-9.2559596714804893E+61</v>
+        <v>-9.2559597078823024E+61</v>
       </c>
       <c r="J27">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I27, $D$2, D27/100)</f>
-        <v>-9.2559596714804893E+61</v>
-      </c>
-      <c r="K27">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K26, L27, M27)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078823024E+61</v>
       </c>
       <c r="L27">
-        <f t="array" ref="L27:M27">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J27, K26))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L26, M27, N27)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M27">
+        <f t="array" ref="M27:N27">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J27, L26))</f>
         <v>10.004312203536006</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>3.9271950183753013E-2</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J27)</f>
         <v>21</v>
       </c>
-      <c r="O27">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J27),1,N27)</f>
+      <c r="P27">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J27),1,O27)</f>
         <v>10.004312203536006</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D28">
         <v>2.419</v>
       </c>
@@ -5546,33 +7947,33 @@
       </c>
       <c r="I28">
         <f>_xll.FIXED.INCOME.SWAP(E28, F28, _xll.FREQ_SEMIANNUALLY(), G28, H28)</f>
-        <v>-9.2559596714818047E+61</v>
+        <v>-9.2559597078820101E+61</v>
       </c>
       <c r="J28">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I28, $D$2, D28/100)</f>
-        <v>-9.2559596714818047E+61</v>
-      </c>
-      <c r="K28">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K27, L28, M28)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078820101E+61</v>
       </c>
       <c r="L28">
-        <f t="array" ref="L28:M28">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J28, K27))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L27, M28, N28)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M28">
+        <f t="array" ref="M28:N28">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J28, L27))</f>
         <v>12.005722225644606</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>4.0132453052366443E-2</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J28)</f>
         <v>25</v>
       </c>
-      <c r="O28">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J28),1,N28)</f>
+      <c r="P28">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J28),1,O28)</f>
         <v>12.005722225644606</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D29">
         <v>2.492</v>
       </c>
@@ -5592,33 +7993,33 @@
       </c>
       <c r="I29">
         <f>_xll.FIXED.INCOME.SWAP(E29, F29, _xll.FREQ_SEMIANNUALLY(), G29, H29)</f>
-        <v>-9.2559596714781509E+61</v>
+        <v>-9.2559597078836178E+61</v>
       </c>
       <c r="J29">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I29, $D$2, D29/100)</f>
-        <v>-9.2559596714781509E+61</v>
-      </c>
-      <c r="K29">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K28, L29, M29)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078836178E+61</v>
       </c>
       <c r="L29">
-        <f t="array" ref="L29:M29">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J29, K28))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L28, M29, N29)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M29">
+        <f t="array" ref="M29:N29">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J29, L28))</f>
         <v>15.00646830530401</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>4.0242333702240951E-2</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J29)</f>
         <v>31</v>
       </c>
-      <c r="O29">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J29),1,N29)</f>
+      <c r="P29">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J29),1,O29)</f>
         <v>15.00646830530401</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D30">
         <v>2.5609999999999999</v>
       </c>
@@ -5638,33 +8039,33 @@
       </c>
       <c r="I30">
         <f>_xll.FIXED.INCOME.SWAP(E30, F30, _xll.FREQ_SEMIANNUALLY(), G30, H30)</f>
-        <v>-9.2559596714784432E+61</v>
+        <v>-9.2559597078809871E+61</v>
       </c>
       <c r="J30">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I30, $D$2, D30/100)</f>
-        <v>-9.2559596714784432E+61</v>
-      </c>
-      <c r="K30">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K29, L30, M30)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078809871E+61</v>
       </c>
       <c r="L30">
-        <f t="array" ref="L30:M30">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J30, K29))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L29, M30, N30)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M30">
+        <f t="array" ref="M30:N30">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J30, L29))</f>
         <v>20.005886500065024</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>4.0069538811482376E-2</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J30)</f>
         <v>41</v>
       </c>
-      <c r="O30">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J30),1,N30)</f>
+      <c r="P30">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J30),1,O30)</f>
         <v>20.005886500065024</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D31">
         <v>2.5870000000000002</v>
       </c>
@@ -5684,33 +8085,33 @@
       </c>
       <c r="I31">
         <f>_xll.FIXED.INCOME.SWAP(E31, F31, _xll.FREQ_SEMIANNUALLY(), G31, H31)</f>
-        <v>-9.2559596714826816E+61</v>
+        <v>-9.2559597078795256E+61</v>
       </c>
       <c r="J31">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I31, $D$2, D31/100)</f>
-        <v>-9.2559596714826816E+61</v>
-      </c>
-      <c r="K31">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K30, L31, M31)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078795256E+61</v>
       </c>
       <c r="L31">
-        <f t="array" ref="L31:M31">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J31, K30))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L30, M31, N31)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M31">
+        <f t="array" ref="M31:N31">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J31, L30))</f>
         <v>25.008042601833029</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>3.8538575519112279E-2</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J31)</f>
         <v>51</v>
       </c>
-      <c r="O31">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J31),1,N31)</f>
+      <c r="P31">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J31),1,O31)</f>
         <v>25.008042601833029</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.45">
       <c r="D32">
         <v>2.5939999999999999</v>
       </c>
@@ -5730,3166 +8131,4344 @@
       </c>
       <c r="I32">
         <f>_xll.FIXED.INCOME.SWAP(E32, F32, _xll.FREQ_SEMIANNUALLY(), G32, H32)</f>
-        <v>-9.2559596714796124E+61</v>
+        <v>-9.2559597078792333E+61</v>
       </c>
       <c r="J32">
         <f>_xll.FIXED.INCOME.SWAP.FIX(I32, $D$2, D32/100)</f>
-        <v>-9.2559596714796124E+61</v>
-      </c>
-      <c r="K32">
-        <f>_xll.PWFLAT.CURVE.EXTEND(K31, L32, M32)</f>
-        <v>-9.2559596712713758E+61</v>
+        <v>-9.2559597078792333E+61</v>
       </c>
       <c r="L32">
-        <f t="array" ref="L32:M32">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J32, K31))</f>
+        <f>_xll.PWFLAT.CURVE.EXTEND(L31, M32, N32)</f>
+        <v>-9.2559597066715488E+61</v>
+      </c>
+      <c r="M32">
+        <f t="array" ref="M32:N32">TRANSPOSE(_xll.PWFLAT.BOOTSTRAP(0, J32, L31))</f>
         <v>30.010198703601031</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>3.7126570168970814E-2</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <f>_xll.FIXED.INCOME.INSTRUMENT.SIZE(J32)</f>
         <v>61</v>
       </c>
-      <c r="O32">
-        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J32),1,N32)</f>
+      <c r="P32">
+        <f>INDEX(_xll.FIXED.INCOME.INSTRUMENT.TIME(J32),1,O32)</f>
         <v>30.010198703601031</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>54</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <f>_xll.PWFLAT.CURVE.BOOTSTRAP(_xll.RANGE.GET(K5))</f>
+        <v>-9.255959706671768E+61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <f t="array" ref="C35:C425">_xll.PWFLAT.VALUE(K32, B35:B425)</f>
+        <f t="array" ref="C35:C425">_xll.PWFLAT.VALUE(L32, B35:B425)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <f t="array" ref="D35:D425">_xll.PWFLAT.VALUE(D34, B35:B425)</f>
+        <v>1.2597260050557143E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>0.01</v>
       </c>
       <c r="C36">
         <v>1.2597260050557143E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <v>1.2597260050557143E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>0.02</v>
       </c>
       <c r="C37">
         <v>1.2597260050557143E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D37">
+        <v>1.2597260050557143E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>0.03</v>
       </c>
       <c r="C38">
         <v>1.2597260050557143E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D38">
+        <v>1.2597260050557143E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>0.04</v>
       </c>
       <c r="C39">
         <v>1.2597260050557143E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D39">
+        <v>1.2597260050557143E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>0.05</v>
       </c>
       <c r="C40">
         <v>1.2597260050557143E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D40">
+        <v>1.2597260050557143E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>0.06</v>
       </c>
       <c r="C41">
         <v>1.2597260050557143E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D41">
+        <v>1.2597260050557143E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C42">
         <v>1.2597260050557143E-2</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D42">
+        <v>1.2597260050557143E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>0.08</v>
       </c>
       <c r="C43">
         <v>1.2597260050557143E-2</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D43">
+        <v>1.2597260050557143E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>0.09</v>
       </c>
       <c r="C44">
         <v>1.2597260050557143E-2</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D44">
+        <v>1.2597260050557143E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>0.1</v>
       </c>
       <c r="C45">
         <v>1.4105101221733056E-2</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D45">
+        <v>1.4105101221733056E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>0.11</v>
       </c>
       <c r="C46">
         <v>1.4105101221733056E-2</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D46">
+        <v>1.4105101221733056E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>0.12</v>
       </c>
       <c r="C47">
         <v>1.4105101221733056E-2</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D47">
+        <v>1.4105101221733056E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>0.13</v>
       </c>
       <c r="C48">
         <v>1.4105101221733056E-2</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D48">
+        <v>1.4105101221733056E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>0.14000000000000001</v>
       </c>
       <c r="C49">
         <v>1.4105101221733056E-2</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D49">
+        <v>1.4105101221733056E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>0.15</v>
       </c>
       <c r="C50">
         <v>1.4105101221733056E-2</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D50">
+        <v>1.4105101221733056E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>0.16</v>
       </c>
       <c r="C51">
         <v>1.4105101221733056E-2</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D51">
+        <v>1.4105101221733056E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>0.17</v>
       </c>
       <c r="C52">
         <v>1.4105101221733056E-2</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D52">
+        <v>1.4105101221733056E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>0.18</v>
       </c>
       <c r="C53">
         <v>1.5282129034986573E-2</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D53">
+        <v>1.5282129034986573E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>0.19</v>
       </c>
       <c r="C54">
         <v>1.5282129034986573E-2</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D54">
+        <v>1.5282129034986573E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>0.2</v>
       </c>
       <c r="C55">
         <v>1.5282129034986573E-2</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D55">
+        <v>1.5282129034986573E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>0.21</v>
       </c>
       <c r="C56">
         <v>1.5282129034986573E-2</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D56">
+        <v>1.5282129034986573E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>0.22</v>
       </c>
       <c r="C57">
         <v>1.5282129034986573E-2</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D57">
+        <v>1.5282129034986573E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>0.23</v>
       </c>
       <c r="C58">
         <v>1.5282129034986573E-2</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D58">
+        <v>1.5282129034986573E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>0.24</v>
       </c>
       <c r="C59">
         <v>1.5282129034986573E-2</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D59">
+        <v>1.5282129034986573E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>0.25</v>
       </c>
       <c r="C60">
         <v>1.5282129034986573E-2</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D60">
+        <v>1.5282129034986573E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>0.26</v>
       </c>
       <c r="C61">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D61">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>0.27</v>
       </c>
       <c r="C62">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D62">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>0.28000000000000003</v>
       </c>
       <c r="C63">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D63">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>0.28999999999999998</v>
       </c>
       <c r="C64">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D64">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>0.3</v>
       </c>
       <c r="C65">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D65">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>0.31</v>
       </c>
       <c r="C66">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D66">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>0.32</v>
       </c>
       <c r="C67">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D67">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>0.33</v>
       </c>
       <c r="C68">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D68">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>0.34</v>
       </c>
       <c r="C69">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D69">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>0.35</v>
       </c>
       <c r="C70">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D70">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>0.36</v>
       </c>
       <c r="C71">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D71">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>0.37</v>
       </c>
       <c r="C72">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D72">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>0.38</v>
       </c>
       <c r="C73">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D73">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>0.39</v>
       </c>
       <c r="C74">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D74">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>0.4</v>
       </c>
       <c r="C75">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D75">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>0.41</v>
       </c>
       <c r="C76">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D76">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>0.42</v>
       </c>
       <c r="C77">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D77">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>0.43</v>
       </c>
       <c r="C78">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D78">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>0.44</v>
       </c>
       <c r="C79">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D79">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>0.45</v>
       </c>
       <c r="C80">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D80">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>0.46</v>
       </c>
       <c r="C81">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D81">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>0.47</v>
       </c>
       <c r="C82">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D82">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>0.48</v>
       </c>
       <c r="C83">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D83">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>0.49</v>
       </c>
       <c r="C84">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D84">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>0.5</v>
       </c>
       <c r="C85">
         <v>1.7873271982620915E-2</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D85">
+        <v>1.7873271982620915E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>0.51</v>
       </c>
       <c r="C86">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D86">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>0.52</v>
       </c>
       <c r="C87">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D87">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>0.53</v>
       </c>
       <c r="C88">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D88">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>0.54</v>
       </c>
       <c r="C89">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D89">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>0.55000000000000004</v>
       </c>
       <c r="C90">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D90">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>0.56000000000000005</v>
       </c>
       <c r="C91">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D91">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>0.56999999999999995</v>
       </c>
       <c r="C92">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D92">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>0.57999999999999996</v>
       </c>
       <c r="C93">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D93">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>0.59</v>
       </c>
       <c r="C94">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D94">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>0.6</v>
       </c>
       <c r="C95">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D95">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>0.61</v>
       </c>
       <c r="C96">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D96">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>0.62</v>
       </c>
       <c r="C97">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D97">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>0.63</v>
       </c>
       <c r="C98">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D98">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>0.64</v>
       </c>
       <c r="C99">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D99">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>0.65</v>
       </c>
       <c r="C100">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D100">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>0.66</v>
       </c>
       <c r="C101">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D101">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>0.67</v>
       </c>
       <c r="C102">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D102">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B103">
         <v>0.68</v>
       </c>
       <c r="C103">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D103">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B104">
         <v>0.69</v>
       </c>
       <c r="C104">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D104">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B105">
         <v>0.7</v>
       </c>
       <c r="C105">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D105">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B106">
         <v>0.71</v>
       </c>
       <c r="C106">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D106">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B107">
         <v>0.72</v>
       </c>
       <c r="C107">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D107">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B108">
         <v>0.73</v>
       </c>
       <c r="C108">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D108">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B109">
         <v>0.74</v>
       </c>
       <c r="C109">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D109">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B110">
         <v>0.75</v>
       </c>
       <c r="C110">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D110">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B111">
         <v>0.76</v>
       </c>
       <c r="C111">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D111">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B112">
         <v>0.77</v>
       </c>
       <c r="C112">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D112">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B113">
         <v>0.78</v>
       </c>
       <c r="C113">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D113">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B114">
         <v>0.79</v>
       </c>
       <c r="C114">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D114">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B115">
         <v>0.8</v>
       </c>
       <c r="C115">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D115">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B116">
         <v>0.81</v>
       </c>
       <c r="C116">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D116">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B117">
         <v>0.82</v>
       </c>
       <c r="C117">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D117">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B118">
         <v>0.83</v>
       </c>
       <c r="C118">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D118">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B119">
         <v>0.84</v>
       </c>
       <c r="C119">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D119">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B120">
         <v>0.85</v>
       </c>
       <c r="C120">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D120">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B121">
         <v>0.86</v>
       </c>
       <c r="C121">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D121">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B122">
         <v>0.87</v>
       </c>
       <c r="C122">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D122">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B123">
         <v>0.88</v>
       </c>
       <c r="C123">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D123">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B124">
         <v>0.89</v>
       </c>
       <c r="C124">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D124">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B125">
         <v>0.9</v>
       </c>
       <c r="C125">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D125">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B126">
         <v>0.91</v>
       </c>
       <c r="C126">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D126">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B127">
         <v>0.92</v>
       </c>
       <c r="C127">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D127">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B128">
         <v>0.93</v>
       </c>
       <c r="C128">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D128">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B129">
         <v>0.94</v>
       </c>
       <c r="C129">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D129">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B130">
         <v>0.95</v>
       </c>
       <c r="C130">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D130">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B131">
         <v>0.96</v>
       </c>
       <c r="C131">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D131">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B132">
         <v>0.97</v>
       </c>
       <c r="C132">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D132">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B133">
         <v>0.98</v>
       </c>
       <c r="C133">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D133">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B134">
         <v>0.99</v>
       </c>
       <c r="C134">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D134">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
         <v>2.1212379824464042E-2</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D135">
+        <v>2.1212379824464042E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B136">
         <v>1.1000000000000001</v>
       </c>
       <c r="C136">
         <v>2.0517330172514857E-2</v>
       </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D136">
+        <v>2.0517330172514857E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B137">
         <v>1.2</v>
       </c>
       <c r="C137">
         <v>2.1451927474952642E-2</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D137">
+        <v>2.1451927474952642E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B138">
         <v>1.3</v>
       </c>
       <c r="C138">
         <v>2.1451927474952642E-2</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D138">
+        <v>2.1451927474952642E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B139">
         <v>1.4</v>
       </c>
       <c r="C139">
         <v>2.1753386938109579E-2</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D139">
+        <v>2.1753386938109579E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B140">
         <v>1.5</v>
       </c>
       <c r="C140">
         <v>2.1753386938109579E-2</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D140">
+        <v>2.1753386938109579E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B141">
         <v>1.6</v>
       </c>
       <c r="C141">
         <v>2.1753386938109579E-2</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D141">
+        <v>2.1753386938109579E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B142">
         <v>1.7</v>
       </c>
       <c r="C142">
         <v>2.2054751607908627E-2</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D142">
+        <v>2.2054751607908627E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B143">
         <v>1.8</v>
       </c>
       <c r="C143">
         <v>2.2054751607908627E-2</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D143">
+        <v>2.2054751607908627E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B144">
         <v>1.9</v>
       </c>
       <c r="C144">
         <v>0.1137679749020995</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D144">
+        <v>0.1137679749020995</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B145">
         <v>2</v>
       </c>
       <c r="C145">
         <v>0.1137679749020995</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D145">
+        <v>0.1137679749020995</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B146">
         <v>2.1</v>
       </c>
       <c r="C146">
         <v>3.0180452737068552E-2</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D146">
+        <v>3.0180452737068552E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B147">
         <v>2.2000000000000002</v>
       </c>
       <c r="C147">
         <v>3.0180452737068552E-2</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D147">
+        <v>3.0180452737068552E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B148">
         <v>2.2999999999999998</v>
       </c>
       <c r="C148">
         <v>3.0180452737068552E-2</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D148">
+        <v>3.0180452737068552E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B149">
         <v>2.4</v>
       </c>
       <c r="C149">
         <v>3.0180452737068552E-2</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D149">
+        <v>3.0180452737068552E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B150">
         <v>2.5</v>
       </c>
       <c r="C150">
         <v>3.0180452737068552E-2</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D150">
+        <v>3.0180452737068552E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B151">
         <v>2.6</v>
       </c>
       <c r="C151">
         <v>3.0180452737068552E-2</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D151">
+        <v>3.0180452737068552E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B152">
         <v>2.7</v>
       </c>
       <c r="C152">
         <v>3.0180452737068552E-2</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D152">
+        <v>3.0180452737068552E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B153">
         <v>2.8</v>
       </c>
       <c r="C153">
         <v>3.0180452737068552E-2</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D153">
+        <v>3.0180452737068552E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B154">
         <v>2.9</v>
       </c>
       <c r="C154">
         <v>3.0180452737068552E-2</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D154">
+        <v>3.0180452737068552E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B155">
         <v>3</v>
       </c>
       <c r="C155">
         <v>3.0180452737068552E-2</v>
       </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D155">
+        <v>3.0180452737068552E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B156">
         <v>3.1</v>
       </c>
       <c r="C156">
         <v>3.1690340676991419E-2</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D156">
+        <v>3.1690340676991419E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B157">
         <v>3.2</v>
       </c>
       <c r="C157">
         <v>3.1690340676991419E-2</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D157">
+        <v>3.1690340676991419E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B158">
         <v>3.3</v>
       </c>
       <c r="C158">
         <v>3.1690340676991419E-2</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D158">
+        <v>3.1690340676991419E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B159">
         <v>3.4</v>
       </c>
       <c r="C159">
         <v>3.1690340676991419E-2</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D159">
+        <v>3.1690340676991419E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B160">
         <v>3.5</v>
       </c>
       <c r="C160">
         <v>3.1690340676991419E-2</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D160">
+        <v>3.1690340676991419E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B161">
         <v>3.6</v>
       </c>
       <c r="C161">
         <v>3.1690340676991419E-2</v>
       </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D161">
+        <v>3.1690340676991419E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B162">
         <v>3.7</v>
       </c>
       <c r="C162">
         <v>3.1690340676991419E-2</v>
       </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D162">
+        <v>3.1690340676991419E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B163">
         <v>3.8</v>
       </c>
       <c r="C163">
         <v>3.1690340676991419E-2</v>
       </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D163">
+        <v>3.1690340676991419E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B164">
         <v>3.9</v>
       </c>
       <c r="C164">
         <v>3.1690340676991419E-2</v>
       </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D164">
+        <v>3.1690340676991419E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B165">
         <v>4</v>
       </c>
       <c r="C165">
         <v>3.1690340676991419E-2</v>
       </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D165">
+        <v>3.1690340676991419E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B166">
         <v>4.0999999999999996</v>
       </c>
       <c r="C166">
         <v>3.327483379252387E-2</v>
       </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D166">
+        <v>3.327483379252387E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B167">
         <v>4.2</v>
       </c>
       <c r="C167">
         <v>3.327483379252387E-2</v>
       </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D167">
+        <v>3.327483379252387E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B168">
         <v>4.3</v>
       </c>
       <c r="C168">
         <v>3.327483379252387E-2</v>
       </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D168">
+        <v>3.327483379252387E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B169">
         <v>4.4000000000000004</v>
       </c>
       <c r="C169">
         <v>3.327483379252387E-2</v>
       </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D169">
+        <v>3.327483379252387E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B170">
         <v>4.5</v>
       </c>
       <c r="C170">
         <v>3.327483379252387E-2</v>
       </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D170">
+        <v>3.327483379252387E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B171">
         <v>4.5999999999999996</v>
       </c>
       <c r="C171">
         <v>3.327483379252387E-2</v>
       </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D171">
+        <v>3.327483379252387E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B172">
         <v>4.7</v>
       </c>
       <c r="C172">
         <v>3.327483379252387E-2</v>
       </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D172">
+        <v>3.327483379252387E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B173">
         <v>4.8</v>
       </c>
       <c r="C173">
         <v>3.327483379252387E-2</v>
       </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D173">
+        <v>3.327483379252387E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B174">
         <v>4.9000000000000004</v>
       </c>
       <c r="C174">
         <v>3.327483379252387E-2</v>
       </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D174">
+        <v>3.327483379252387E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B175">
         <v>5</v>
       </c>
       <c r="C175">
         <v>3.327483379252387E-2</v>
       </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D175">
+        <v>3.327483379252387E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B176">
         <v>5.0999999999999996</v>
       </c>
       <c r="C176">
         <v>3.5075274331584513E-2</v>
       </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D176">
+        <v>3.5075274331584513E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B177">
         <v>5.2</v>
       </c>
       <c r="C177">
         <v>3.5075274331584513E-2</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D177">
+        <v>3.5075274331584513E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B178">
         <v>5.3</v>
       </c>
       <c r="C178">
         <v>3.5075274331584513E-2</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D178">
+        <v>3.5075274331584513E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B179">
         <v>5.4</v>
       </c>
       <c r="C179">
         <v>3.5075274331584513E-2</v>
       </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D179">
+        <v>3.5075274331584513E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B180">
         <v>5.5</v>
       </c>
       <c r="C180">
         <v>3.5075274331584513E-2</v>
       </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D180">
+        <v>3.5075274331584513E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B181">
         <v>5.6</v>
       </c>
       <c r="C181">
         <v>3.5075274331584513E-2</v>
       </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D181">
+        <v>3.5075274331584513E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B182">
         <v>5.7</v>
       </c>
       <c r="C182">
         <v>3.5075274331584513E-2</v>
       </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D182">
+        <v>3.5075274331584513E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B183">
         <v>5.8</v>
       </c>
       <c r="C183">
         <v>3.5075274331584513E-2</v>
       </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D183">
+        <v>3.5075274331584513E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B184">
         <v>5.9</v>
       </c>
       <c r="C184">
         <v>3.5075274331584513E-2</v>
       </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D184">
+        <v>3.5075274331584513E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B185">
         <v>6</v>
       </c>
       <c r="C185">
         <v>3.5075274331584513E-2</v>
       </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D185">
+        <v>3.5075274331584513E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B186">
         <v>6.1</v>
       </c>
       <c r="C186">
         <v>3.6339621054790619E-2</v>
       </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D186">
+        <v>3.6339621054790619E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B187">
         <v>6.2</v>
       </c>
       <c r="C187">
         <v>3.6339621054790619E-2</v>
       </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D187">
+        <v>3.6339621054790619E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B188">
         <v>6.3</v>
       </c>
       <c r="C188">
         <v>3.6339621054790619E-2</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D188">
+        <v>3.6339621054790619E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B189">
         <v>6.4</v>
       </c>
       <c r="C189">
         <v>3.6339621054790619E-2</v>
       </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D189">
+        <v>3.6339621054790619E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B190">
         <v>6.5000000000000098</v>
       </c>
       <c r="C190">
         <v>3.6339621054790619E-2</v>
       </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D190">
+        <v>3.6339621054790619E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B191">
         <v>6.6</v>
       </c>
       <c r="C191">
         <v>3.6339621054790619E-2</v>
       </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D191">
+        <v>3.6339621054790619E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B192">
         <v>6.7</v>
       </c>
       <c r="C192">
         <v>3.6339621054790619E-2</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D192">
+        <v>3.6339621054790619E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B193">
         <v>6.8000000000000096</v>
       </c>
       <c r="C193">
         <v>3.6339621054790619E-2</v>
       </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D193">
+        <v>3.6339621054790619E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B194">
         <v>6.9000000000000101</v>
       </c>
       <c r="C194">
         <v>3.6339621054790619E-2</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D194">
+        <v>3.6339621054790619E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B195">
         <v>7.0000000000000098</v>
       </c>
       <c r="C195">
         <v>3.6339621054790619E-2</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D195">
+        <v>3.6339621054790619E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B196">
         <v>7.1</v>
       </c>
       <c r="C196">
         <v>3.7630621227288989E-2</v>
       </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D196">
+        <v>3.7630621227288989E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B197">
         <v>7.2000000000000099</v>
       </c>
       <c r="C197">
         <v>3.7630621227288989E-2</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D197">
+        <v>3.7630621227288989E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B198">
         <v>7.3000000000000096</v>
       </c>
       <c r="C198">
         <v>3.7630621227288989E-2</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D198">
+        <v>3.7630621227288989E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B199">
         <v>7.4000000000000101</v>
       </c>
       <c r="C199">
         <v>3.7630621227288989E-2</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D199">
+        <v>3.7630621227288989E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B200">
         <v>7.5000000000000098</v>
       </c>
       <c r="C200">
         <v>3.7630621227288989E-2</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D200">
+        <v>3.7630621227288989E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B201">
         <v>7.6000000000000103</v>
       </c>
       <c r="C201">
         <v>3.7630621227288989E-2</v>
       </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D201">
+        <v>3.7630621227288989E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B202">
         <v>7.7000000000000099</v>
       </c>
       <c r="C202">
         <v>3.7630621227288989E-2</v>
       </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D202">
+        <v>3.7630621227288989E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B203">
         <v>7.8000000000000096</v>
       </c>
       <c r="C203">
         <v>3.7630621227288989E-2</v>
       </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D203">
+        <v>3.7630621227288989E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B204">
         <v>7.9000000000000101</v>
       </c>
       <c r="C204">
         <v>3.7630621227288989E-2</v>
       </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D204">
+        <v>3.7630621227288989E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B205">
         <v>8.0000000000000107</v>
       </c>
       <c r="C205">
         <v>3.7630621227288989E-2</v>
       </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D205">
+        <v>3.7630621227288989E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B206">
         <v>8.1000000000000103</v>
       </c>
       <c r="C206">
         <v>3.8524483115849904E-2</v>
       </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D206">
+        <v>3.8524483115849904E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B207">
         <v>8.2000000000000099</v>
       </c>
       <c r="C207">
         <v>3.8524483115849904E-2</v>
       </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D207">
+        <v>3.8524483115849904E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B208">
         <v>8.3000000000000096</v>
       </c>
       <c r="C208">
         <v>3.8524483115849904E-2</v>
       </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D208">
+        <v>3.8524483115849904E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B209">
         <v>8.4000000000000092</v>
       </c>
       <c r="C209">
         <v>3.8524483115849904E-2</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D209">
+        <v>3.8524483115849904E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B210">
         <v>8.5000000000000107</v>
       </c>
       <c r="C210">
         <v>3.8524483115849904E-2</v>
       </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D210">
+        <v>3.8524483115849904E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B211">
         <v>8.6000000000000103</v>
       </c>
       <c r="C211">
         <v>3.8524483115849904E-2</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D211">
+        <v>3.8524483115849904E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B212">
         <v>8.7000000000000099</v>
       </c>
       <c r="C212">
         <v>3.8524483115849904E-2</v>
       </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D212">
+        <v>3.8524483115849904E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B213">
         <v>8.8000000000000096</v>
       </c>
       <c r="C213">
         <v>3.8524483115849904E-2</v>
       </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D213">
+        <v>3.8524483115849904E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B214">
         <v>8.9000000000000092</v>
       </c>
       <c r="C214">
         <v>3.8524483115849904E-2</v>
       </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D214">
+        <v>3.8524483115849904E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B215">
         <v>9.0000000000000107</v>
       </c>
       <c r="C215">
         <v>3.8524483115849904E-2</v>
       </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D215">
+        <v>3.8524483115849904E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B216">
         <v>9.1000000000000103</v>
       </c>
       <c r="C216">
         <v>3.9271950183753013E-2</v>
       </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D216">
+        <v>3.9271950183753013E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B217">
         <v>9.2000000000000099</v>
       </c>
       <c r="C217">
         <v>3.9271950183753013E-2</v>
       </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D217">
+        <v>3.9271950183753013E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B218">
         <v>9.3000000000000096</v>
       </c>
       <c r="C218">
         <v>3.9271950183753013E-2</v>
       </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D218">
+        <v>3.9271950183753013E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B219">
         <v>9.4000000000000092</v>
       </c>
       <c r="C219">
         <v>3.9271950183753013E-2</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D219">
+        <v>3.9271950183753013E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B220">
         <v>9.5000000000000107</v>
       </c>
       <c r="C220">
         <v>3.9271950183753013E-2</v>
       </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D220">
+        <v>3.9271950183753013E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B221">
         <v>9.6000000000000103</v>
       </c>
       <c r="C221">
         <v>3.9271950183753013E-2</v>
       </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D221">
+        <v>3.9271950183753013E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B222">
         <v>9.7000000000000099</v>
       </c>
       <c r="C222">
         <v>3.9271950183753013E-2</v>
       </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D222">
+        <v>3.9271950183753013E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B223">
         <v>9.8000000000000096</v>
       </c>
       <c r="C223">
         <v>3.9271950183753013E-2</v>
       </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D223">
+        <v>3.9271950183753013E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B224">
         <v>9.9000000000000092</v>
       </c>
       <c r="C224">
         <v>3.9271950183753013E-2</v>
       </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D224">
+        <v>3.9271950183753013E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B225">
         <v>10</v>
       </c>
       <c r="C225">
         <v>3.9271950183753013E-2</v>
       </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D225">
+        <v>3.9271950183753013E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B226">
         <v>10.1</v>
       </c>
       <c r="C226">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D226">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B227">
         <v>10.199999999999999</v>
       </c>
       <c r="C227">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D227">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B228">
         <v>10.3</v>
       </c>
       <c r="C228">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D228">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B229">
         <v>10.4</v>
       </c>
       <c r="C229">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D229">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B230">
         <v>10.5</v>
       </c>
       <c r="C230">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D230">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B231">
         <v>10.6</v>
       </c>
       <c r="C231">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D231">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B232">
         <v>10.7</v>
       </c>
       <c r="C232">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D232">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B233">
         <v>10.8</v>
       </c>
       <c r="C233">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D233">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B234">
         <v>10.9</v>
       </c>
       <c r="C234">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D234">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B235">
         <v>11</v>
       </c>
       <c r="C235">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D235">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B236">
         <v>11.1</v>
       </c>
       <c r="C236">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D236">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B237">
         <v>11.2</v>
       </c>
       <c r="C237">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D237">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B238">
         <v>11.3</v>
       </c>
       <c r="C238">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D238">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B239">
         <v>11.4</v>
       </c>
       <c r="C239">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D239">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B240">
         <v>11.5</v>
       </c>
       <c r="C240">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D240">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B241">
         <v>11.6</v>
       </c>
       <c r="C241">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D241">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B242">
         <v>11.7</v>
       </c>
       <c r="C242">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D242">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B243">
         <v>11.8</v>
       </c>
       <c r="C243">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D243">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B244">
         <v>11.9</v>
       </c>
       <c r="C244">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D244">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B245">
         <v>12</v>
       </c>
       <c r="C245">
         <v>4.0132453052366443E-2</v>
       </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D245">
+        <v>4.0132453052366443E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B246">
         <v>12.1</v>
       </c>
       <c r="C246">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D246">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B247">
         <v>12.2</v>
       </c>
       <c r="C247">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D247">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B248">
         <v>12.3</v>
       </c>
       <c r="C248">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D248">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B249">
         <v>12.4</v>
       </c>
       <c r="C249">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D249">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B250">
         <v>12.5</v>
       </c>
       <c r="C250">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D250">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B251">
         <v>12.6</v>
       </c>
       <c r="C251">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D251">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B252">
         <v>12.7</v>
       </c>
       <c r="C252">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D252">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B253">
         <v>12.8</v>
       </c>
       <c r="C253">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D253">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B254">
         <v>12.9</v>
       </c>
       <c r="C254">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D254">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B255">
         <v>13</v>
       </c>
       <c r="C255">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D255">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B256">
         <v>13.1</v>
       </c>
       <c r="C256">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D256">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B257">
         <v>13.2</v>
       </c>
       <c r="C257">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D257">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B258">
         <v>13.3</v>
       </c>
       <c r="C258">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D258">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B259">
         <v>13.4</v>
       </c>
       <c r="C259">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D259">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B260">
         <v>13.5</v>
       </c>
       <c r="C260">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D260">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B261">
         <v>13.6</v>
       </c>
       <c r="C261">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D261">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B262">
         <v>13.7</v>
       </c>
       <c r="C262">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D262">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B263">
         <v>13.8</v>
       </c>
       <c r="C263">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D263">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B264">
         <v>13.9</v>
       </c>
       <c r="C264">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D264">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B265">
         <v>14</v>
       </c>
       <c r="C265">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D265">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B266">
         <v>14.1</v>
       </c>
       <c r="C266">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D266">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B267">
         <v>14.2</v>
       </c>
       <c r="C267">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D267">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B268">
         <v>14.3</v>
       </c>
       <c r="C268">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D268">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B269">
         <v>14.4</v>
       </c>
       <c r="C269">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D269">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B270">
         <v>14.5</v>
       </c>
       <c r="C270">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D270">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B271">
         <v>14.6</v>
       </c>
       <c r="C271">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D271">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B272">
         <v>14.7</v>
       </c>
       <c r="C272">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D272">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B273">
         <v>14.8</v>
       </c>
       <c r="C273">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D273">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B274">
         <v>14.9</v>
       </c>
       <c r="C274">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D274">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B275">
         <v>15</v>
       </c>
       <c r="C275">
         <v>4.0242333702240951E-2</v>
       </c>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D275">
+        <v>4.0242333702240951E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B276">
         <v>15.1</v>
       </c>
       <c r="C276">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D276">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B277">
         <v>15.2</v>
       </c>
       <c r="C277">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D277">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B278">
         <v>15.3</v>
       </c>
       <c r="C278">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D278">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B279">
         <v>15.4</v>
       </c>
       <c r="C279">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D279">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B280">
         <v>15.5</v>
       </c>
       <c r="C280">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D280">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B281">
         <v>15.6</v>
       </c>
       <c r="C281">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D281">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B282">
         <v>15.7</v>
       </c>
       <c r="C282">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D282">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B283">
         <v>15.8</v>
       </c>
       <c r="C283">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D283">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B284">
         <v>15.9</v>
       </c>
       <c r="C284">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D284">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B285">
         <v>16</v>
       </c>
       <c r="C285">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D285">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B286">
         <v>16.100000000000001</v>
       </c>
       <c r="C286">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D286">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B287">
         <v>16.2</v>
       </c>
       <c r="C287">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D287">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B288">
         <v>16.3</v>
       </c>
       <c r="C288">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D288">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B289">
         <v>16.399999999999999</v>
       </c>
       <c r="C289">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D289">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B290">
         <v>16.5</v>
       </c>
       <c r="C290">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D290">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B291">
         <v>16.600000000000001</v>
       </c>
       <c r="C291">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D291">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B292">
         <v>16.7</v>
       </c>
       <c r="C292">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D292">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B293">
         <v>16.8</v>
       </c>
       <c r="C293">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D293">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B294">
         <v>16.899999999999999</v>
       </c>
       <c r="C294">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D294">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B295">
         <v>17</v>
       </c>
       <c r="C295">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D295">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B296">
         <v>17.100000000000001</v>
       </c>
       <c r="C296">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D296">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B297">
         <v>17.2</v>
       </c>
       <c r="C297">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D297">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B298">
         <v>17.3</v>
       </c>
       <c r="C298">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D298">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B299">
         <v>17.399999999999999</v>
       </c>
       <c r="C299">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D299">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B300">
         <v>17.5</v>
       </c>
       <c r="C300">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D300">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B301">
         <v>17.600000000000001</v>
       </c>
       <c r="C301">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D301">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B302">
         <v>17.7</v>
       </c>
       <c r="C302">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D302">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B303">
         <v>17.8</v>
       </c>
       <c r="C303">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D303">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B304">
         <v>17.899999999999999</v>
       </c>
       <c r="C304">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D304">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B305">
         <v>18</v>
       </c>
       <c r="C305">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D305">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B306">
         <v>18.100000000000001</v>
       </c>
       <c r="C306">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D306">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B307">
         <v>18.2</v>
       </c>
       <c r="C307">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D307">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B308">
         <v>18.3</v>
       </c>
       <c r="C308">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D308">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B309">
         <v>18.399999999999999</v>
       </c>
       <c r="C309">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D309">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B310">
         <v>18.5</v>
       </c>
       <c r="C310">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D310">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B311">
         <v>18.600000000000001</v>
       </c>
       <c r="C311">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D311">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B312">
         <v>18.7</v>
       </c>
       <c r="C312">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D312">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B313">
         <v>18.8</v>
       </c>
       <c r="C313">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D313">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B314">
         <v>18.899999999999999</v>
       </c>
       <c r="C314">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D314">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B315">
         <v>19</v>
       </c>
       <c r="C315">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D315">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B316">
         <v>19.100000000000001</v>
       </c>
       <c r="C316">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D316">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B317">
         <v>19.2</v>
       </c>
       <c r="C317">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D317">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B318">
         <v>19.3</v>
       </c>
       <c r="C318">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D318">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B319">
         <v>19.399999999999999</v>
       </c>
       <c r="C319">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D319">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B320">
         <v>19.5</v>
       </c>
       <c r="C320">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D320">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B321">
         <v>19.600000000000001</v>
       </c>
       <c r="C321">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D321">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B322">
         <v>19.7</v>
       </c>
       <c r="C322">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D322">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B323">
         <v>19.8</v>
       </c>
       <c r="C323">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D323">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B324">
         <v>19.899999999999999</v>
       </c>
       <c r="C324">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D324">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B325">
         <v>20</v>
       </c>
       <c r="C325">
         <v>4.0069538811482376E-2</v>
       </c>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D325">
+        <v>4.0069538811482376E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B326">
         <v>20.100000000000001</v>
       </c>
       <c r="C326">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D326">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B327">
         <v>20.2</v>
       </c>
       <c r="C327">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D327">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B328">
         <v>20.3</v>
       </c>
       <c r="C328">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D328">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B329">
         <v>20.399999999999999</v>
       </c>
       <c r="C329">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D329">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B330">
         <v>20.5</v>
       </c>
       <c r="C330">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D330">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B331">
         <v>20.6</v>
       </c>
       <c r="C331">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D331">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B332">
         <v>20.7</v>
       </c>
       <c r="C332">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D332">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B333">
         <v>20.8</v>
       </c>
       <c r="C333">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D333">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B334">
         <v>20.9</v>
       </c>
       <c r="C334">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D334">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B335">
         <v>21</v>
       </c>
       <c r="C335">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D335">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B336">
         <v>21.1</v>
       </c>
       <c r="C336">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D336">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B337">
         <v>21.2</v>
       </c>
       <c r="C337">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D337">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B338">
         <v>21.3</v>
       </c>
       <c r="C338">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D338">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B339">
         <v>21.4</v>
       </c>
       <c r="C339">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D339">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B340">
         <v>21.5</v>
       </c>
       <c r="C340">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D340">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B341">
         <v>21.6</v>
       </c>
       <c r="C341">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D341">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B342">
         <v>21.7</v>
       </c>
       <c r="C342">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D342">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B343">
         <v>21.8</v>
       </c>
       <c r="C343">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D343">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B344">
         <v>21.9</v>
       </c>
       <c r="C344">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D344">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B345">
         <v>22</v>
       </c>
       <c r="C345">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D345">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B346">
         <v>22.1</v>
       </c>
       <c r="C346">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D346">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B347">
         <v>22.2</v>
       </c>
       <c r="C347">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D347">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B348">
         <v>22.3</v>
       </c>
       <c r="C348">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D348">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B349">
         <v>22.4</v>
       </c>
       <c r="C349">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D349">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B350">
         <v>22.5</v>
       </c>
       <c r="C350">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D350">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B351">
         <v>22.6</v>
       </c>
       <c r="C351">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D351">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B352">
         <v>22.7</v>
       </c>
       <c r="C352">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D352">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B353">
         <v>22.8</v>
       </c>
       <c r="C353">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D353">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B354">
         <v>22.9</v>
       </c>
       <c r="C354">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D354">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B355">
         <v>23</v>
       </c>
       <c r="C355">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D355">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B356">
         <v>23.1</v>
       </c>
       <c r="C356">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D356">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B357">
         <v>23.2</v>
       </c>
       <c r="C357">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D357">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B358">
         <v>23.3</v>
       </c>
       <c r="C358">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D358">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B359">
         <v>23.4</v>
       </c>
       <c r="C359">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D359">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B360">
         <v>23.5</v>
       </c>
       <c r="C360">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D360">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B361">
         <v>23.6</v>
       </c>
       <c r="C361">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D361">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B362">
         <v>23.7</v>
       </c>
       <c r="C362">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D362">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B363">
         <v>23.8</v>
       </c>
       <c r="C363">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D363">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B364">
         <v>23.9</v>
       </c>
       <c r="C364">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D364">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B365">
         <v>24</v>
       </c>
       <c r="C365">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D365">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B366">
         <v>24.1</v>
       </c>
       <c r="C366">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D366">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B367">
         <v>24.2</v>
       </c>
       <c r="C367">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D367">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B368">
         <v>24.3</v>
       </c>
       <c r="C368">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D368">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B369">
         <v>24.4</v>
       </c>
       <c r="C369">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D369">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B370">
         <v>24.5</v>
       </c>
       <c r="C370">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D370">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B371">
         <v>24.6</v>
       </c>
       <c r="C371">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D371">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B372">
         <v>24.7</v>
       </c>
       <c r="C372">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D372">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B373">
         <v>24.8</v>
       </c>
       <c r="C373">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D373">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B374">
         <v>24.9</v>
       </c>
       <c r="C374">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D374">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B375">
         <v>25</v>
       </c>
       <c r="C375">
         <v>3.8538575519112279E-2</v>
       </c>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D375">
+        <v>3.8538575519112279E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B376">
         <v>25.1</v>
       </c>
       <c r="C376">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D376">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B377">
         <v>25.2</v>
       </c>
       <c r="C377">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D377">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B378">
         <v>25.3</v>
       </c>
       <c r="C378">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D378">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B379">
         <v>25.4</v>
       </c>
       <c r="C379">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D379">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B380">
         <v>25.5</v>
       </c>
       <c r="C380">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D380">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B381">
         <v>25.6</v>
       </c>
       <c r="C381">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D381">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B382">
         <v>25.7</v>
       </c>
       <c r="C382">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D382">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B383">
         <v>25.8</v>
       </c>
       <c r="C383">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D383">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B384">
         <v>25.9</v>
       </c>
       <c r="C384">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D384">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B385">
         <v>26</v>
       </c>
       <c r="C385">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D385">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B386">
         <v>26.1</v>
       </c>
       <c r="C386">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D386">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B387">
         <v>26.2</v>
       </c>
       <c r="C387">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D387">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B388">
         <v>26.3</v>
       </c>
       <c r="C388">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D388">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B389">
         <v>26.4</v>
       </c>
       <c r="C389">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D389">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B390">
         <v>26.5</v>
       </c>
       <c r="C390">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D390">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B391">
         <v>26.6</v>
       </c>
       <c r="C391">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D391">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B392">
         <v>26.7</v>
       </c>
       <c r="C392">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D392">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B393">
         <v>26.8</v>
       </c>
       <c r="C393">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D393">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B394">
         <v>26.9</v>
       </c>
       <c r="C394">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D394">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B395">
         <v>27</v>
       </c>
       <c r="C395">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D395">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B396">
         <v>27.1</v>
       </c>
       <c r="C396">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D396">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B397">
         <v>27.2</v>
       </c>
       <c r="C397">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D397">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B398">
         <v>27.3</v>
       </c>
       <c r="C398">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D398">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B399">
         <v>27.4</v>
       </c>
       <c r="C399">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D399">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B400">
         <v>27.5</v>
       </c>
       <c r="C400">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D400">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B401">
         <v>27.6</v>
       </c>
       <c r="C401">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D401">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B402">
         <v>27.7</v>
       </c>
       <c r="C402">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D402">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B403">
         <v>27.8</v>
       </c>
       <c r="C403">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D403">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B404">
         <v>27.9</v>
       </c>
       <c r="C404">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D404">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B405">
         <v>28</v>
       </c>
       <c r="C405">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D405">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B406">
         <v>28.1</v>
       </c>
       <c r="C406">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D406">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B407">
         <v>28.2</v>
       </c>
       <c r="C407">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D407">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B408">
         <v>28.3</v>
       </c>
       <c r="C408">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D408">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B409">
         <v>28.4</v>
       </c>
       <c r="C409">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D409">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B410">
         <v>28.5</v>
       </c>
       <c r="C410">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D410">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B411">
         <v>28.6</v>
       </c>
       <c r="C411">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D411">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B412">
         <v>28.7</v>
       </c>
       <c r="C412">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D412">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B413">
         <v>28.8</v>
       </c>
       <c r="C413">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D413">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B414">
         <v>28.9</v>
       </c>
       <c r="C414">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D414">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B415">
         <v>29</v>
       </c>
       <c r="C415">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D415">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B416">
         <v>29.1</v>
       </c>
       <c r="C416">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D416">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B417">
         <v>29.2</v>
       </c>
       <c r="C417">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D417">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B418">
         <v>29.3</v>
       </c>
       <c r="C418">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D418">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B419">
         <v>29.4</v>
       </c>
       <c r="C419">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D419">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B420">
         <v>29.5</v>
       </c>
       <c r="C420">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D420">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B421">
         <v>29.6</v>
       </c>
       <c r="C421">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D421">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B422">
         <v>29.7</v>
       </c>
       <c r="C422">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D422">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B423">
         <v>29.8</v>
       </c>
       <c r="C423">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D423">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B424">
         <v>29.9</v>
       </c>
       <c r="C424">
         <v>3.7126570168970814E-2</v>
       </c>
-    </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D424">
+        <v>3.7126570168970814E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B425">
         <v>30</v>
       </c>
       <c r="C425">
+        <v>3.7126570168970814E-2</v>
+      </c>
+      <c r="D425">
         <v>3.7126570168970814E-2</v>
       </c>
     </row>
